--- a/Bill of Materials/core-bom-v021.xlsx
+++ b/Bill of Materials/core-bom-v021.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="28280" tabRatio="500"/>
+    <workbookView xWindow="11660" yWindow="3140" windowWidth="33020" windowHeight="21620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="171">
   <si>
     <t>Value</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>IPEX-20279-001E</t>
-  </si>
-  <si>
-    <t>FC135</t>
   </si>
   <si>
     <t>Y2</t>
@@ -364,14 +361,6 @@
     <t>10pF, Ceramic, 50V, ±0.5pF</t>
   </si>
   <si>
-    <t>Yageo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603JRNPO9BN100 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>22pF, Ceramic, 50V, 5%</t>
   </si>
   <si>
@@ -560,9 +549,6 @@
     <t>SMD</t>
   </si>
   <si>
-    <t>Taoglas Limited</t>
-  </si>
-  <si>
     <t>RECE.20279.001E.01</t>
   </si>
   <si>
@@ -573,9 +559,6 @@
   </si>
   <si>
     <t>2-SMD</t>
-  </si>
-  <si>
-    <t>EPSON</t>
   </si>
   <si>
     <t>8MHz Crystal, 18pF, SMD</t>
@@ -607,9 +590,6 @@
     <t>AVL P/N</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Need to confirm specs and stack-up</t>
   </si>
   <si>
@@ -644,13 +624,61 @@
   </si>
   <si>
     <t>Package size must be 3225</t>
+  </si>
+  <si>
+    <t>Need SMD type</t>
+  </si>
+  <si>
+    <t>New Component</t>
+  </si>
+  <si>
+    <t>Need Local Part #</t>
+  </si>
+  <si>
+    <t>We Provide</t>
+  </si>
+  <si>
+    <t>06032U100JAT2A</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Chip Antenna Production Quantity</t>
+  </si>
+  <si>
+    <t>u.FL Antenna Production Quantitiy</t>
+  </si>
+  <si>
+    <t>Total Production Quantity</t>
+  </si>
+  <si>
+    <t>Price/Unit</t>
+  </si>
+  <si>
+    <t>Total Quantity</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>MOQ</t>
+  </si>
+  <si>
+    <t>Lead Time</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>C0603C104K3RACTU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -697,6 +725,34 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -723,13 +779,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +863,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -940,12 +995,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -954,48 +1023,101 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="123" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="131" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="124" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="123" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="124" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="123" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="124" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="131" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="124" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="123" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="124" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="124" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="131" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="148">
     <cellStyle name="Bad" xfId="124" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1061,6 +1183,14 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="123" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1126,6 +1256,15 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="131" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1455,796 +1594,1168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J36"/>
+  <dimension ref="B3:N45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:14">
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="28">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="28">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="29">
+        <f>SUM(D7:D8)</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="30">
+        <f>B13*$D$9</f>
+        <v>13200</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="30">
+        <f>B14*$D$7</f>
+        <v>12000</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="2:14" ht="45">
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="30">
+        <f t="shared" ref="K15:K45" si="0">B15*$D$9</f>
+        <v>26400</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="36">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G16" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="30">
+        <f>B16*$D$9</f>
+        <v>13200</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="30">
+        <f>D8+D7</f>
+        <v>13200</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="36">
+        <v>4</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="30">
+        <f t="shared" si="0"/>
+        <v>52800</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="14">
+        <v>7</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="30">
+        <f t="shared" si="0"/>
+        <v>92400</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="14">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="30">
+        <f>B20*$D$7</f>
+        <v>12000</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="36">
+        <v>2</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="6">
+      <c r="G21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="30">
+        <f t="shared" si="0"/>
+        <v>26400</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="J4" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="8">
+      <c r="C22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="14">
+        <v>2</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="30">
+        <f t="shared" si="0"/>
+        <v>26400</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="10">
+      <c r="C24" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="19">
+      <c r="C29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="30">
+        <f t="shared" si="0"/>
+        <v>26400</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="14">
         <v>1</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="C30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="14">
+        <v>2</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="30">
+        <f t="shared" si="0"/>
+        <v>26400</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="14">
+        <v>2</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="30">
+        <f t="shared" si="0"/>
+        <v>26400</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="14">
+        <v>1</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="14">
+        <v>1</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="14">
+        <v>1</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="14">
+        <v>1</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="14">
+        <v>1</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="14">
+        <v>1</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="10">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="19">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="J40" s="11"/>
+      <c r="K40" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="14">
+        <v>1</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="30">
+        <f>B41*$D$8</f>
+        <v>1200</v>
+      </c>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="14">
+        <v>1</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="10">
+      <c r="J42" s="11"/>
+      <c r="K42" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="14">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="19">
-        <v>2</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="C43" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="10">
+      <c r="J43" s="11"/>
+      <c r="K43" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="14">
         <v>1</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="10">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="10">
+      <c r="C44" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="14">
         <v>1</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="10">
-        <v>2</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="10">
-        <v>2</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="10">
-        <v>2</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="10">
-        <v>1</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="10">
-        <v>1</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="J31" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="10">
-        <v>1</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="C45" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="10">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="23"/>
-      <c r="J34" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="10">
-        <v>1</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="10">
-        <v>1</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="1"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="30">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:H4"/>
+  <mergeCells count="4">
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="K41 K17 K20 K14" formula="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Bill of Materials/core-bom-v021.xlsx
+++ b/Bill of Materials/core-bom-v021.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11660" yWindow="3140" windowWidth="33020" windowHeight="21620" tabRatio="500"/>
+    <workbookView xWindow="4820" yWindow="2380" windowWidth="33020" windowHeight="21620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
+    <sheet name="Fab Notes for PCB Vendor" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -145,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="179">
   <si>
     <t>Value</t>
   </si>
@@ -617,9 +618,6 @@
     <t>MIC5209-3.3YS</t>
   </si>
   <si>
-    <t>Switch to through-hole version</t>
-  </si>
-  <si>
     <t>Probably fine, but will need to test</t>
   </si>
   <si>
@@ -672,6 +670,33 @@
   </si>
   <si>
     <t>C0603C104K3RACTU</t>
+  </si>
+  <si>
+    <t>CMCUSB-5BFM2G-01-D</t>
+  </si>
+  <si>
+    <t>Need price quote? Might be super expensive.</t>
+  </si>
+  <si>
+    <t>Fab notes for PCB vendor</t>
+  </si>
+  <si>
+    <t>Specified for 7628 single sided 7 mil prepreg</t>
+  </si>
+  <si>
+    <t>Er (dielectric constant) between 4.5 and 4.7</t>
+  </si>
+  <si>
+    <t>Board thickness of 1.6mm</t>
+  </si>
+  <si>
+    <t>Distance of 0.014"/356um between layers 1 and 2</t>
+  </si>
+  <si>
+    <t>Target impedance of 50 ohms on RF net (see drawing)</t>
+  </si>
+  <si>
+    <t>Plug and tent all vias on the top side of the board</t>
   </si>
 </sst>
 </file>
@@ -863,7 +888,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="148">
+  <cellStyleXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1012,8 +1037,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,9 +1092,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="123" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="124" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1089,6 +1115,18 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,20 +1142,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="148">
+  <cellStyles count="152">
     <cellStyle name="Bad" xfId="124" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1191,6 +1221,8 @@
     <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="123" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1264,6 +1296,8 @@
     <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="131" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1596,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1622,56 +1656,56 @@
     <row r="3" spans="2:14">
       <c r="B3" s="6"/>
       <c r="C3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="7"/>
       <c r="C4" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="8"/>
       <c r="C5" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:14">
       <c r="B6"/>
-      <c r="C6" s="26"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="27">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="28">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="34" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="28">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="29">
+      <c r="C9" s="38"/>
+      <c r="D9" s="28">
         <f>SUM(D7:D8)</f>
         <v>13200</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="27"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="2" t="s">
@@ -1696,22 +1730,22 @@
         <v>142</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="13" spans="2:14">
@@ -1721,18 +1755,18 @@
       <c r="C13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="11" t="s">
         <v>143</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="30">
+      <c r="K13" s="29">
         <f>B13*$D$9</f>
         <v>13200</v>
       </c>
@@ -1764,7 +1798,7 @@
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <f>B14*$D$7</f>
         <v>12000</v>
       </c>
@@ -1798,7 +1832,7 @@
         <v>144</v>
       </c>
       <c r="J15" s="11"/>
-      <c r="K15" s="30">
+      <c r="K15" s="29">
         <f t="shared" ref="K15:K45" si="0">B15*$D$9</f>
         <v>26400</v>
       </c>
@@ -1807,7 +1841,7 @@
       <c r="N15" s="11"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="36">
+      <c r="B16" s="30">
         <v>1</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -1822,15 +1856,15 @@
       <c r="F16" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="31" t="s">
         <v>169</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>170</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="30">
+      <c r="K16" s="29">
         <f>B16*$D$9</f>
         <v>13200</v>
       </c>
@@ -1854,15 +1888,17 @@
       <c r="F17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="11"/>
+      <c r="H17" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="J17" s="11"/>
-      <c r="K17" s="30">
+      <c r="K17" s="29">
         <f>D8+D7</f>
         <v>13200</v>
       </c>
@@ -1871,7 +1907,7 @@
       <c r="N17" s="11"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="36">
+      <c r="B18" s="30">
         <v>4</v>
       </c>
       <c r="C18" s="18" t="s">
@@ -1894,7 +1930,7 @@
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="30">
+      <c r="K18" s="29">
         <f t="shared" si="0"/>
         <v>52800</v>
       </c>
@@ -1926,7 +1962,7 @@
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="30">
+      <c r="K19" s="29">
         <f t="shared" si="0"/>
         <v>92400</v>
       </c>
@@ -1950,15 +1986,17 @@
       <c r="F20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="J20" s="11"/>
-      <c r="K20" s="30">
+      <c r="K20" s="29">
         <f>B20*$D$7</f>
         <v>12000</v>
       </c>
@@ -1967,7 +2005,7 @@
       <c r="N20" s="11"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="36">
+      <c r="B21" s="30">
         <v>2</v>
       </c>
       <c r="C21" s="18" t="s">
@@ -1990,7 +2028,7 @@
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="30">
+      <c r="K21" s="29">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
@@ -2022,7 +2060,7 @@
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="30">
+      <c r="K22" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2056,7 +2094,7 @@
         <v>150</v>
       </c>
       <c r="J23" s="11"/>
-      <c r="K23" s="30">
+      <c r="K23" s="29">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
@@ -2088,7 +2126,7 @@
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="30">
+      <c r="K24" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2120,7 +2158,7 @@
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="30">
+      <c r="K25" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2152,7 +2190,7 @@
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="30">
+      <c r="K26" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2184,7 +2222,7 @@
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="30">
+      <c r="K27" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2216,7 +2254,7 @@
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="30">
+      <c r="K28" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2248,7 +2286,7 @@
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="30">
+      <c r="K29" s="29">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
@@ -2280,7 +2318,7 @@
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="30">
+      <c r="K30" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2312,7 +2350,7 @@
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="30">
+      <c r="K31" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2344,7 +2382,7 @@
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="30">
+      <c r="K32" s="29">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
@@ -2376,7 +2414,7 @@
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="30">
+      <c r="K33" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2408,7 +2446,7 @@
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="30">
+      <c r="K34" s="29">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
@@ -2440,7 +2478,7 @@
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="30">
+      <c r="K35" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2464,15 +2502,15 @@
       <c r="F36" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="15" t="s">
         <v>151</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="30">
+      <c r="K36" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2504,7 +2542,7 @@
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="30">
+      <c r="K37" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2536,7 +2574,7 @@
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="30">
+      <c r="K38" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2548,25 +2586,25 @@
       <c r="B39" s="14">
         <v>1</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22" t="s">
+      <c r="E39" s="21"/>
+      <c r="F39" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="21" t="s">
         <v>126</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="30">
+      <c r="K39" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2590,13 +2628,15 @@
       <c r="F40" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="11" t="s">
-        <v>152</v>
-      </c>
+      <c r="G40" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" s="11"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="30">
+      <c r="K40" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2627,10 +2667,10 @@
         <v>130</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J41" s="11"/>
-      <c r="K41" s="30">
+      <c r="K41" s="29">
         <f>B41*$D$8</f>
         <v>1200</v>
       </c>
@@ -2657,10 +2697,10 @@
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J42" s="11"/>
-      <c r="K42" s="30">
+      <c r="K42" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2685,12 +2725,12 @@
         <v>45</v>
       </c>
       <c r="G43" s="17"/>
-      <c r="H43" s="24"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J43" s="11"/>
-      <c r="K43" s="30">
+      <c r="K43" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2711,10 +2751,10 @@
       <c r="E44" s="19"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="25"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="30">
+      <c r="K44" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2733,10 +2773,10 @@
       <c r="E45" s="19"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="25"/>
+      <c r="H45" s="24"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="30">
+      <c r="K45" s="29">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2762,4 +2802,64 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Bill of Materials/core-bom-v021.xlsx
+++ b/Bill of Materials/core-bom-v021.xlsx
@@ -2809,7 +2809,7 @@
   <dimension ref="B2:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Bill of Materials/core-bom-v021.xlsx
+++ b/Bill of Materials/core-bom-v021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="2380" windowWidth="33020" windowHeight="21620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="28280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="173">
   <si>
     <t>Value</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Chip Resistor Array</t>
   </si>
   <si>
-    <t>3225</t>
-  </si>
-  <si>
     <t>C4, C7-8, C13-15, C17</t>
   </si>
   <si>
@@ -332,22 +329,22 @@
   </si>
   <si>
     <t>Fab PCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FR4,1.6mm,1OZ,Electroless Nickel Immersion Gold,White Solder mask, Black Silkscreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2.4GHz, Ceramic</t>
   </si>
   <si>
     <t>ACX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AT8010-E2R9HAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Button</t>
@@ -417,6 +414,203 @@
   </si>
   <si>
     <t>2.2nH, Ceramic</t>
+  </si>
+  <si>
+    <t>220Ω, 500mA</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>BLM18AG221SN1D</t>
+  </si>
+  <si>
+    <t>Blue, SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WENLIANG </t>
+  </si>
+  <si>
+    <t>WLUB0603A-341</t>
+  </si>
+  <si>
+    <t>WLRGB3528C/R</t>
+  </si>
+  <si>
+    <t>Dual NPN, 40V</t>
+  </si>
+  <si>
+    <t>MMDT3904-TP</t>
+  </si>
+  <si>
+    <t>1K, 4 Resistors</t>
+  </si>
+  <si>
+    <t>Panasonic Electric Components</t>
+  </si>
+  <si>
+    <t>3.3V, 0.5A LDO</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>MCU ARM 128K, 48-pin</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>16Mbit, 75MHz</t>
+  </si>
+  <si>
+    <t>SST25VF016B-75-4I-S2AF-T</t>
+  </si>
+  <si>
+    <t>Wifi Module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wi-Fi Module</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>U2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB Micro B Connector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uFL Connector</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>RTC Crystal</t>
+  </si>
+  <si>
+    <t>32.768KHz, 12.5pF RTC Crystal</t>
+  </si>
+  <si>
+    <t>2-SMD</t>
+  </si>
+  <si>
+    <t>8MHz Crystal, 18pF, SMD</t>
+  </si>
+  <si>
+    <t>Mini Breadboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400pt or smaller</t>
+  </si>
+  <si>
+    <t>USB Micro - B Cable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Package/Case</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>AVL</t>
+  </si>
+  <si>
+    <t>AVL P/N</t>
+  </si>
+  <si>
+    <t>Need to confirm specs and stack-up</t>
+  </si>
+  <si>
+    <t>C9, C10, C11, C12</t>
+  </si>
+  <si>
+    <t>New Component</t>
+  </si>
+  <si>
+    <t>Need Local Part #</t>
+  </si>
+  <si>
+    <t>We Provide</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Chip Antenna Production Quantity</t>
+  </si>
+  <si>
+    <t>u.FL Antenna Production Quantitiy</t>
+  </si>
+  <si>
+    <t>Total Production Quantity</t>
+  </si>
+  <si>
+    <t>Price/Unit</t>
+  </si>
+  <si>
+    <t>Total Quantity</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>MOQ</t>
+  </si>
+  <si>
+    <t>Lead Time</t>
+  </si>
+  <si>
+    <t>Fab notes for PCB vendor</t>
+  </si>
+  <si>
+    <t>Specified for 7628 single sided 7 mil prepreg</t>
+  </si>
+  <si>
+    <t>Er (dielectric constant) between 4.5 and 4.7</t>
+  </si>
+  <si>
+    <t>Board thickness of 1.6mm</t>
+  </si>
+  <si>
+    <t>Distance of 0.014"/356um between layers 1 and 2</t>
+  </si>
+  <si>
+    <t>Target impedance of 50 ohms on RF net (see drawing)</t>
+  </si>
+  <si>
+    <t>Plug and tent all vias on the top side of the board</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>4.7uF, Ceramic, 10V, 10%, X5R</t>
+  </si>
+  <si>
+    <t>LMK107BJ475KAHT</t>
   </si>
   <si>
     <t>TDK</t>
@@ -427,283 +621,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>220Ω, 500mA</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>BLM18AG221SN1D</t>
-  </si>
-  <si>
-    <t>Blue, SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WENLIANG </t>
-  </si>
-  <si>
-    <t>WLUB0603A-341</t>
-  </si>
-  <si>
-    <t>WLRGB3528C/R</t>
-  </si>
-  <si>
-    <t>Dual NPN, 40V</t>
-  </si>
-  <si>
-    <t>MMDT3904-TP</t>
-  </si>
-  <si>
-    <t>10K, 1/10W, 5%</t>
-  </si>
-  <si>
-    <t>CRCW060310K0JNEB</t>
-  </si>
-  <si>
-    <t>33K, 1/10W, 5%</t>
-  </si>
-  <si>
-    <t>CRCW060333K0JNEB</t>
-  </si>
-  <si>
-    <t>1K5, 1/10W, 5%</t>
-  </si>
-  <si>
-    <t>CRCW06031K50JNEA</t>
-  </si>
-  <si>
-    <t>22Ω, 1/10W, 5%</t>
-  </si>
-  <si>
-    <t>Panasonic Electronic Components</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ220V</t>
-  </si>
-  <si>
-    <t>47K, 1/10W, 5%</t>
-  </si>
-  <si>
-    <t>CRCW060347K0JNEB</t>
-  </si>
-  <si>
-    <t>1K, 1/10W, 5%</t>
-  </si>
-  <si>
-    <t>CRCW06031K00JNEA</t>
-  </si>
-  <si>
-    <t>1K, 4 Resistors</t>
-  </si>
-  <si>
-    <t>Panasonic Electric Components</t>
-  </si>
-  <si>
-    <t>3.3V, 0.5A LDO</t>
+    <t>10K, 1/4W, 5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRCW060310K0JNEAHP</t>
+  </si>
+  <si>
+    <t>33K, 1/4W, 5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRCW060333K0JNEAHP</t>
+  </si>
+  <si>
+    <t>1K5, 1/4W, 5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRCW06031K50JNEAHP</t>
+  </si>
+  <si>
+    <t>22Ω, 1/4W, 5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRCW060322R0JNEAHP</t>
+  </si>
+  <si>
+    <t>47K, 1/4W, 5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRCW060347K0JNEAHP</t>
+  </si>
+  <si>
+    <t>1K, 1/4W, 5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRCW06031K00JNEAHP</t>
   </si>
   <si>
     <t>Microchip Technology</t>
-  </si>
-  <si>
-    <t>Microcontroller</t>
-  </si>
-  <si>
-    <t>MCU ARM 128K, 48-pin</t>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>16Mbit, 75MHz</t>
-  </si>
-  <si>
-    <t>SST25VF016B-75-4I-S2AF-T</t>
-  </si>
-  <si>
-    <t>Wifi Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wi-Fi Module</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>U2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB Micro B Connector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uFL Connector</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>RECE.20279.001E.01</t>
-  </si>
-  <si>
-    <t>RTC Crystal</t>
-  </si>
-  <si>
-    <t>32.768KHz, 12.5pF RTC Crystal</t>
-  </si>
-  <si>
-    <t>2-SMD</t>
-  </si>
-  <si>
-    <t>8MHz Crystal, 18pF, SMD</t>
-  </si>
-  <si>
-    <t>Mini Breadboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400pt or smaller</t>
-  </si>
-  <si>
-    <t>USB Micro - B Cable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Package/Case</t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>AVL</t>
-  </si>
-  <si>
-    <t>AVL P/N</t>
-  </si>
-  <si>
-    <t>Need to confirm specs and stack-up</t>
-  </si>
-  <si>
-    <t>Fine, but will definitely need to confirm quality and tolerance to reflow oven. Can spec the C&amp;K button for DIY (basically the same footprint)</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>1uF, Ceramic, 25V</t>
-  </si>
-  <si>
-    <t>06032U2R2CAT2A</t>
-  </si>
-  <si>
-    <t>C2, C16</t>
-  </si>
-  <si>
-    <t>C9, C10, C11, C12</t>
-  </si>
-  <si>
-    <t>Let's make sure these are high-quality and gold-plated</t>
-  </si>
-  <si>
-    <t>MIC5209-3.3YS</t>
-  </si>
-  <si>
-    <t>Probably fine, but will need to test</t>
-  </si>
-  <si>
-    <t>Package size must be 3225</t>
-  </si>
-  <si>
-    <t>Need SMD type</t>
-  </si>
-  <si>
-    <t>New Component</t>
-  </si>
-  <si>
-    <t>Need Local Part #</t>
-  </si>
-  <si>
-    <t>We Provide</t>
-  </si>
-  <si>
-    <t>06032U100JAT2A</t>
-  </si>
-  <si>
-    <t>Additional Comments</t>
-  </si>
-  <si>
-    <t>Chip Antenna Production Quantity</t>
-  </si>
-  <si>
-    <t>u.FL Antenna Production Quantitiy</t>
-  </si>
-  <si>
-    <t>Total Production Quantity</t>
-  </si>
-  <si>
-    <t>Price/Unit</t>
-  </si>
-  <si>
-    <t>Total Quantity</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>MOQ</t>
-  </si>
-  <si>
-    <t>Lead Time</t>
-  </si>
-  <si>
-    <t>Murata Electronics</t>
-  </si>
-  <si>
-    <t>C0603C104K3RACTU</t>
-  </si>
-  <si>
-    <t>CMCUSB-5BFM2G-01-D</t>
-  </si>
-  <si>
-    <t>Need price quote? Might be super expensive.</t>
-  </si>
-  <si>
-    <t>Fab notes for PCB vendor</t>
-  </si>
-  <si>
-    <t>Specified for 7628 single sided 7 mil prepreg</t>
-  </si>
-  <si>
-    <t>Er (dielectric constant) between 4.5 and 4.7</t>
-  </si>
-  <si>
-    <t>Board thickness of 1.6mm</t>
-  </si>
-  <si>
-    <t>Distance of 0.014"/356um between layers 1 and 2</t>
-  </si>
-  <si>
-    <t>Target impedance of 50 ohms on RF net (see drawing)</t>
-  </si>
-  <si>
-    <t>Plug and tent all vias on the top side of the board</t>
+    <t>MCP1825S-3302E/DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMCUSB-5BFM2G-01-D </t>
+  </si>
+  <si>
+    <t>P1163-0140R</t>
+  </si>
+  <si>
+    <t>Song Ji</t>
+  </si>
+  <si>
+    <t>SJFC1332K12P20</t>
+  </si>
+  <si>
+    <t>SMD5032 4P 30M</t>
+  </si>
+  <si>
+    <t>5032</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -759,11 +755,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9C6500"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Times New Roman"/>
     </font>
@@ -777,6 +768,16 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="7">
@@ -798,18 +799,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,206 +891,203 @@
   </borders>
   <cellStyleXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="123" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="131" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="124" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="123" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="131" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="124" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="124" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="131" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="124" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="123" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="124" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1098,42 +1096,31 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="124" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="131" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1142,10 +1129,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="152">
     <cellStyle name="Bad" xfId="124" builtinId="27"/>
@@ -1630,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1656,60 +1655,60 @@
     <row r="3" spans="2:14">
       <c r="B3" s="6"/>
       <c r="C3" s="5" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="7"/>
       <c r="C4" s="5" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="8"/>
       <c r="C5" s="5" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:14">
       <c r="B6"/>
-      <c r="C6" s="25"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="27">
+      <c r="B7" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="25">
         <v>12000</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="27">
+      <c r="B8" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="25">
         <v>1200</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="28">
+      <c r="B9" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="26">
         <f>SUM(D7:D8)</f>
         <v>13200</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="26"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
@@ -1718,34 +1717,34 @@
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:14">
@@ -1753,20 +1752,20 @@
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="11" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="29">
+      <c r="K13" s="27">
         <f>B13*$D$9</f>
         <v>13200</v>
       </c>
@@ -1782,7 +1781,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>46</v>
@@ -1791,14 +1790,14 @@
         <v>11</v>
       </c>
       <c r="G14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="29">
+      <c r="K14" s="27">
         <f>B14*$D$7</f>
         <v>12000</v>
       </c>
@@ -1806,7 +1805,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="2:14" ht="45">
+    <row r="15" spans="2:14">
       <c r="B15" s="14">
         <v>2</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>47</v>
@@ -1823,16 +1822,14 @@
         <v>36</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>144</v>
-      </c>
+      <c r="I15" s="16"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="29">
+      <c r="K15" s="27">
         <f t="shared" ref="K15:K45" si="0">B15*$D$9</f>
         <v>26400</v>
       </c>
@@ -1841,32 +1838,32 @@
       <c r="N15" s="11"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="30">
-        <v>1</v>
+      <c r="B16" s="28">
+        <v>2</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>169</v>
+        <v>147</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="29">
+      <c r="K16" s="27">
         <f>B16*$D$9</f>
-        <v>13200</v>
+        <v>26400</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -1876,29 +1873,23 @@
       <c r="B17" s="14">
         <v>2</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>76</v>
+      <c r="C17" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>171</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="29">
+      <c r="K17" s="27">
         <f>D8+D7</f>
         <v>13200</v>
       </c>
@@ -1907,30 +1898,30 @@
       <c r="N17" s="11"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="30">
+      <c r="B18" s="28">
         <v>4</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="39" t="s">
         <v>71</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="29">
+      <c r="K18" s="27">
         <f t="shared" si="0"/>
         <v>52800</v>
       </c>
@@ -1942,27 +1933,27 @@
       <c r="B19" s="14">
         <v>7</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="39" t="s">
         <v>74</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="29">
+      <c r="K19" s="27">
         <f t="shared" si="0"/>
         <v>92400</v>
       </c>
@@ -1974,29 +1965,23 @@
       <c r="B20" s="14">
         <v>1</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>171</v>
-      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="29">
+      <c r="K20" s="27">
         <f>B20*$D$7</f>
         <v>12000</v>
       </c>
@@ -2005,32 +1990,32 @@
       <c r="N20" s="11"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="30">
-        <v>2</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>58</v>
+      <c r="B21" s="28">
+        <v>1</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="39" t="s">
         <v>79</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="29">
+      <c r="K21" s="27">
         <f t="shared" si="0"/>
-        <v>26400</v>
+        <v>13200</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
@@ -2044,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>14</v>
@@ -2053,14 +2038,14 @@
         <v>13</v>
       </c>
       <c r="G22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="29">
+      <c r="K22" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2072,11 +2057,11 @@
       <c r="B23" s="14">
         <v>2</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>27</v>
@@ -2085,16 +2070,14 @@
         <v>26</v>
       </c>
       <c r="G23" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>150</v>
-      </c>
+      <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="29">
+      <c r="K23" s="27">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
@@ -2106,11 +2089,11 @@
       <c r="B24" s="14">
         <v>1</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>30</v>
@@ -2118,15 +2101,15 @@
       <c r="F24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>90</v>
+      <c r="G24" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>152</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="29">
+      <c r="K24" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2142,23 +2125,23 @@
         <v>29</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="29">
+      <c r="K25" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2170,27 +2153,27 @@
       <c r="B26" s="14">
         <v>1</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="29">
+      <c r="K26" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2202,27 +2185,27 @@
       <c r="B27" s="14">
         <v>1</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>52</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="29">
+      <c r="K27" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2234,11 +2217,11 @@
       <c r="B28" s="14">
         <v>1</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>17</v>
@@ -2247,14 +2230,14 @@
         <v>3</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="29">
+      <c r="K28" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2266,27 +2249,27 @@
       <c r="B29" s="14">
         <v>2</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="19" t="s">
+      <c r="D29" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>101</v>
+      <c r="G29" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>154</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="29">
+      <c r="K29" s="27">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
@@ -2298,27 +2281,27 @@
       <c r="B30" s="14">
         <v>1</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>103</v>
+      <c r="G30" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>156</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="29">
+      <c r="K30" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2330,27 +2313,27 @@
       <c r="B31" s="14">
         <v>1</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>105</v>
+      <c r="G31" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>158</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="29">
+      <c r="K31" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2362,27 +2345,27 @@
       <c r="B32" s="14">
         <v>2</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>108</v>
+      <c r="G32" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>160</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="29">
+      <c r="K32" s="27">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
@@ -2394,27 +2377,27 @@
       <c r="B33" s="14">
         <v>1</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>110</v>
+      <c r="G33" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="29">
+      <c r="K33" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2426,27 +2409,27 @@
       <c r="B34" s="14">
         <v>2</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>112</v>
+      <c r="G34" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>164</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="29">
+      <c r="K34" s="27">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
@@ -2458,27 +2441,27 @@
       <c r="B35" s="14">
         <v>1</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" s="11" t="s">
+      <c r="G35" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="42" t="s">
         <v>42</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="29">
+      <c r="K35" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2494,7 +2477,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>40</v>
@@ -2502,15 +2485,15 @@
       <c r="F36" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>151</v>
+      <c r="G36" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="29">
+      <c r="K36" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2523,10 +2506,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>7</v>
@@ -2535,14 +2518,14 @@
         <v>21</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>32</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="29">
+      <c r="K37" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2558,7 +2541,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>34</v>
@@ -2567,14 +2550,14 @@
         <v>22</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="29">
+      <c r="K38" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2586,25 +2569,25 @@
       <c r="B39" s="14">
         <v>1</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>126</v>
+      <c r="C39" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="29">
+      <c r="K39" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2616,8 +2599,8 @@
       <c r="B40" s="14">
         <v>1</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>127</v>
+      <c r="C40" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>35</v>
@@ -2628,15 +2611,15 @@
       <c r="F40" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>170</v>
+      <c r="G40" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>167</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="29">
+      <c r="K40" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2648,29 +2631,27 @@
       <c r="B41" s="14">
         <v>1</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>128</v>
+      <c r="C41" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>152</v>
-      </c>
+      <c r="G41" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" s="11"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="29">
+      <c r="K41" s="27">
         <f>B41*$D$8</f>
         <v>1200</v>
       </c>
@@ -2682,25 +2663,27 @@
       <c r="B42" s="14">
         <v>1</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>131</v>
+      <c r="C42" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="11" t="s">
-        <v>154</v>
-      </c>
+      <c r="G42" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="I42" s="11"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="29">
+      <c r="K42" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2712,25 +2695,27 @@
       <c r="B43" s="14">
         <v>1</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>56</v>
+        <v>117</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="11" t="s">
-        <v>153</v>
-      </c>
+      <c r="G43" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="11"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="29">
+      <c r="K43" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2742,19 +2727,19 @@
       <c r="B44" s="14">
         <v>1</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>135</v>
+      <c r="C44" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="19"/>
+        <v>119</v>
+      </c>
+      <c r="E44" s="18"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="24"/>
+      <c r="H44" s="22"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="29">
+      <c r="K44" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2766,17 +2751,17 @@
       <c r="B45" s="14">
         <v>1</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>137</v>
+      <c r="C45" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="19"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="24"/>
+      <c r="H45" s="22"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="29">
+      <c r="K45" s="27">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
@@ -2808,49 +2793,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="26" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="2.83203125" style="24" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="40" t="s">
-        <v>172</v>
+      <c r="B2" s="29" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="26" t="s">
-        <v>173</v>
+      <c r="B3" s="24" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="26" t="s">
-        <v>174</v>
+      <c r="B4" s="24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="26" t="s">
-        <v>175</v>
+      <c r="B5" s="24" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="26" t="s">
-        <v>176</v>
+      <c r="B6" s="24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="26" t="s">
-        <v>177</v>
+      <c r="B7" s="24" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="26" t="s">
-        <v>178</v>
+      <c r="B8" s="24" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Bill of Materials/core-bom-v021.xlsx
+++ b/Bill of Materials/core-bom-v021.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21920" tabRatio="500"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
   <si>
     <t>Device</t>
   </si>
@@ -664,15 +664,6 @@
   </si>
   <si>
     <t>FR4, 1.6mm, 1OZ, Electroless Nickel Immersion Gold, White Solder Mask, Black Silkscreen</t>
-  </si>
-  <si>
-    <t>Core - Chip Antenna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core - u.FL </t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
   <si>
     <t>LAST UPDATED</t>
@@ -686,7 +677,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -748,12 +739,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1142,7 +1127,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,19 +1145,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,9 +1166,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="123" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1219,17 +1188,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="124" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="287">
@@ -1848,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J51"/>
+  <dimension ref="B1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1875,11 +1847,11 @@
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="2:10" ht="16" thickBot="1">
-      <c r="B2" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="39">
+      <c r="B2" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="32">
         <v>41473</v>
       </c>
     </row>
@@ -1889,876 +1861,905 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10">
-        <v>10200</v>
+      <c r="B4" s="30" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="33">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="33">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="33">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="30">
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11">
-        <f>SUM(D4:D5)</f>
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="2" t="s">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="33">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="33">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="33">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="33">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="33">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="12">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="33">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="33">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="33">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="33">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="33">
+        <v>2</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="33">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="33">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="33">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="33">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="33">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="33">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="33">
+        <v>2</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="33">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="33">
+        <v>1</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="33">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="33">
+        <v>1</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="23">
+    <row r="40" spans="2:10">
+      <c r="B40" s="12">
         <v>1</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="41">
-        <v>7</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="41">
-        <v>4</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="41">
-        <v>2</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="17">
-        <v>2</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="17">
+      <c r="C40" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="30">
-      <c r="B17" s="14">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="41">
-        <v>1</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="41">
-        <v>1</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="41">
-        <v>1</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="41">
-        <v>1</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="41">
-        <v>1</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="41">
-        <v>1</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="17">
-        <v>2</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="41">
-        <v>1</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="41">
-        <v>1</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="41">
-        <v>2</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="41">
-        <v>2</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="41">
-        <v>2</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="41">
-        <v>1</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="41">
-        <v>1</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="41">
-        <v>1</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="41">
-        <v>1</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="41">
-        <v>1</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="41">
-        <v>1</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="41">
-        <v>2</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="41">
-        <v>1</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="41">
-        <v>1</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="41">
-        <v>1</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="28" t="s">
+      <c r="C41" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="41">
-        <v>1</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>135</v>
-      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="10"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="8"/>
-    </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="8"/>
+      <c r="B43" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="2" t="s">
@@ -2790,119 +2791,44 @@
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="17">
+      <c r="B45" s="12">
         <v>1</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>158</v>
+      <c r="C45" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="15"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="17">
+      <c r="B46" s="12">
         <v>1</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="17">
-        <v>1</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="17">
-        <v>1</v>
-      </c>
-      <c r="C51" s="31" t="s">
+      <c r="C46" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
     </row>
   </sheetData>
   <sortState ref="B9:J38">
     <sortCondition ref="C9:C38"/>
   </sortState>
-  <mergeCells count="5">
-    <mergeCell ref="D11:I11"/>
+  <mergeCells count="2">
+    <mergeCell ref="D6:I6"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Bill of Materials/core-bom-v021.xlsx
+++ b/Bill of Materials/core-bom-v021.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21920" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
   <si>
     <t>Device</t>
   </si>
@@ -671,6 +671,21 @@
   <si>
     <t>US PN   = 2500AT44M0400E
 Asia PN =  AT8010-E2R9HAA</t>
+  </si>
+  <si>
+    <t>251R14S100JV4T</t>
+  </si>
+  <si>
+    <t>251R14S2R2BV4T</t>
+  </si>
+  <si>
+    <t>Johanson Technology Inc</t>
+  </si>
+  <si>
+    <t>250V</t>
+  </si>
+  <si>
+    <t>250V, ±0.1pF</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1142,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1203,6 +1218,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="287">
     <cellStyle name="Bad" xfId="124" builtinId="27"/>
@@ -1822,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2000,15 +2016,21 @@
       <c r="D10" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="37" t="s">
+        <v>172</v>
+      </c>
       <c r="F10" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>169</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>154</v>
       </c>
@@ -2023,15 +2045,21 @@
       <c r="D11" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F11" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="H11" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>170</v>
+      </c>
       <c r="J11" s="5" t="s">
         <v>154</v>
       </c>

--- a/Bill of Materials/core-bom-v021.xlsx
+++ b/Bill of Materials/core-bom-v021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="176">
   <si>
     <t>Device</t>
   </si>
@@ -316,15 +316,6 @@
   </si>
   <si>
     <t>Vishay</t>
-  </si>
-  <si>
-    <t>VJ0603A220JXACW1BC</t>
-  </si>
-  <si>
-    <t>Taiyo Yuden</t>
-  </si>
-  <si>
-    <t>TMK107BJ104KA-T</t>
   </si>
   <si>
     <t>Ceramic RF Capacitor</t>
@@ -473,48 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10K, 1/4W, 5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRCW060310K0JNEAHP</t>
-  </si>
-  <si>
-    <t>33K, 1/4W, 5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRCW060333K0JNEAHP</t>
-  </si>
-  <si>
-    <t>1K5, 1/4W, 5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRCW06031K50JNEAHP</t>
-  </si>
-  <si>
-    <t>22Ω, 1/4W, 5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRCW060322R0JNEAHP</t>
-  </si>
-  <si>
-    <t>47K, 1/4W, 5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRCW060347K0JNEAHP</t>
-  </si>
-  <si>
-    <t>1K, 1/4W, 5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRCW06031K00JNEAHP</t>
-  </si>
-  <si>
     <t>Song Ji</t>
   </si>
   <si>
@@ -546,9 +495,6 @@
     <t>C1, C2</t>
   </si>
   <si>
-    <t>LMK107BJ475KAHT</t>
-  </si>
-  <si>
     <t>Mini Breadboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -615,9 +561,6 @@
     <t>50V, 5%</t>
   </si>
   <si>
-    <t>25V</t>
-  </si>
-  <si>
     <t>1K, 1/4W, 4 Resistors, 5%</t>
   </si>
   <si>
@@ -686,6 +629,63 @@
   </si>
   <si>
     <t>250V, ±0.1pF</t>
+  </si>
+  <si>
+    <t>25V, X7R</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R8BB104</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN220</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>CL10A475KP8NNNC</t>
+  </si>
+  <si>
+    <t>10K, 1/10W, 5%</t>
+  </si>
+  <si>
+    <t>CRCW060310K0JNEB</t>
+  </si>
+  <si>
+    <t>CRCW060333K0JNEB</t>
+  </si>
+  <si>
+    <t>CRCW06031K50JNEA</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ220V</t>
+  </si>
+  <si>
+    <t>CRCW060347K0JNEB</t>
+  </si>
+  <si>
+    <t>CRCW06031K00JNEA</t>
+  </si>
+  <si>
+    <t>22Ω, 1/10W, 5%</t>
+  </si>
+  <si>
+    <t>1K, 1/10W, 5%</t>
+  </si>
+  <si>
+    <t>33K, 1/10W, 5%</t>
+  </si>
+  <si>
+    <t>1K5, 1/10W, 5%</t>
+  </si>
+  <si>
+    <t>47K, 1/10W, 5%</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="287">
+  <cellStyleXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -979,6 +979,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1209,6 +1217,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1218,9 +1227,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="287">
+  <cellStyles count="295">
     <cellStyle name="Bad" xfId="124" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1364,6 +1372,10 @@
     <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="123" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1507,6 +1519,10 @@
     <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1838,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1863,10 +1879,10 @@
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="2:10" ht="16" thickBot="1">
-      <c r="B2" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="36"/>
+      <c r="B2" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="37"/>
       <c r="D2" s="32">
         <v>41473</v>
       </c>
@@ -1878,36 +1894,36 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="30" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1915,16 +1931,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+        <v>116</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10">
@@ -1935,22 +1951,22 @@
         <v>7</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -1962,22 +1978,22 @@
         <v>7</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -1989,20 +2005,20 @@
         <v>7</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="J9" s="5"/>
     </row>
@@ -2011,13 +2027,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>172</v>
+        <v>128</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>28</v>
@@ -2025,14 +2041,14 @@
       <c r="G10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>169</v>
+      <c r="H10" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -2040,13 +2056,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>173</v>
+        <v>129</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>28</v>
@@ -2054,14 +2070,14 @@
       <c r="G11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>170</v>
+      <c r="H11" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>153</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30">
@@ -2069,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>55</v>
@@ -2082,10 +2098,10 @@
         <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="J12" s="5"/>
     </row>
@@ -2097,10 +2113,10 @@
         <v>51</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>23</v>
@@ -2109,7 +2125,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>38</v>
@@ -2124,23 +2140,23 @@
         <v>8</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="20" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -2151,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
@@ -2161,10 +2177,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J15" s="5"/>
     </row>
@@ -2173,10 +2189,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="22" t="s">
@@ -2186,13 +2202,13 @@
         <v>13</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -2203,7 +2219,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="22" t="s">
@@ -2213,10 +2229,10 @@
         <v>2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J17" s="5"/>
     </row>
@@ -2228,7 +2244,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="23" t="s">
@@ -2238,10 +2254,10 @@
         <v>14</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J18" s="5"/>
     </row>
@@ -2253,7 +2269,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="22" t="s">
@@ -2263,10 +2279,10 @@
         <v>24</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J19" s="5"/>
     </row>
@@ -2278,7 +2294,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="20" t="s">
@@ -2288,10 +2304,10 @@
         <v>44</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J20" s="5"/>
     </row>
@@ -2300,10 +2316,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
@@ -2313,7 +2329,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>30</v>
@@ -2328,7 +2344,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="20" t="s">
@@ -2337,11 +2353,11 @@
       <c r="G22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>108</v>
+      <c r="I22" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="J22" s="5"/>
     </row>
@@ -2353,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="20" t="s">
@@ -2362,11 +2378,11 @@
       <c r="G23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>114</v>
+      <c r="H23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="J23" s="5"/>
     </row>
@@ -2378,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="20" t="s">
@@ -2387,11 +2403,11 @@
       <c r="G24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>118</v>
+      <c r="I24" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="J24" s="5"/>
     </row>
@@ -2403,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="20" t="s">
@@ -2412,11 +2428,11 @@
       <c r="G25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="15" t="s">
-        <v>110</v>
+      <c r="I25" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="J25" s="5"/>
     </row>
@@ -2428,7 +2444,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="20" t="s">
@@ -2437,11 +2453,11 @@
       <c r="G26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>112</v>
+      <c r="I26" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="J26" s="5"/>
     </row>
@@ -2453,7 +2469,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="20" t="s">
@@ -2462,11 +2478,11 @@
       <c r="G27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="15" t="s">
-        <v>116</v>
+      <c r="I27" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="J27" s="5"/>
     </row>
@@ -2488,10 +2504,10 @@
         <v>45</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J28" s="5"/>
     </row>
@@ -2500,23 +2516,23 @@
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="J29" s="5"/>
     </row>
@@ -2525,10 +2541,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="19" t="s">
@@ -2538,10 +2554,10 @@
         <v>20</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J30" s="5"/>
     </row>
@@ -2553,7 +2569,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="13" t="s">
@@ -2563,10 +2579,10 @@
         <v>32</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="J31" s="5"/>
     </row>
@@ -2578,20 +2594,20 @@
         <v>52</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J32" s="5"/>
     </row>
@@ -2600,23 +2616,23 @@
         <v>1</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>39</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J33" s="5"/>
     </row>
@@ -2625,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="22" t="s">
@@ -2638,10 +2654,10 @@
         <v>4</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="J34" s="5"/>
     </row>
@@ -2653,7 +2669,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="19" t="s">
@@ -2663,10 +2679,10 @@
         <v>3</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="J35" s="5"/>
     </row>
@@ -2675,21 +2691,21 @@
         <v>1</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="5"/>
       <c r="G36" s="13" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J36" s="5"/>
     </row>
@@ -2706,7 +2722,7 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="30" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="28"/>
@@ -2719,31 +2735,31 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="J39" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -2751,14 +2767,14 @@
         <v>1</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="20" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -2770,10 +2786,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="16" t="s">
@@ -2786,36 +2802,36 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="J44" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="45" spans="2:10">
@@ -2823,10 +2839,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -2840,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>

--- a/Bill of Materials/core-bom-v021.xlsx
+++ b/Bill of Materials/core-bom-v021.xlsx
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="175">
   <si>
     <t>Device</t>
   </si>
@@ -661,12 +661,6 @@
     <t>CRCW06031K50JNEA</t>
   </si>
   <si>
-    <t>Panasonic Electronic Components</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ220V</t>
-  </si>
-  <si>
     <t>CRCW060347K0JNEB</t>
   </si>
   <si>
@@ -686,6 +680,9 @@
   </si>
   <si>
     <t>47K, 1/10W, 5%</t>
+  </si>
+  <si>
+    <t>CRCW060322R0JNEA</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1884,7 +1881,7 @@
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="32">
-        <v>41473</v>
+        <v>41479</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -2369,7 +2366,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="20" t="s">
@@ -2379,10 +2376,10 @@
         <v>34</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J23" s="5"/>
     </row>
@@ -2394,7 +2391,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="20" t="s">
@@ -2407,7 +2404,7 @@
         <v>56</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J24" s="5"/>
     </row>
@@ -2419,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="20" t="s">
@@ -2444,7 +2441,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="20" t="s">
@@ -2469,7 +2466,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="20" t="s">
@@ -2482,7 +2479,7 @@
         <v>56</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J27" s="5"/>
     </row>

--- a/Bill of Materials/core-bom-v021.xlsx
+++ b/Bill of Materials/core-bom-v021.xlsx
@@ -682,7 +682,7 @@
     <t>47K, 1/10W, 5%</t>
   </si>
   <si>
-    <t>CRCW060322R0JNEA</t>
+    <t>RC0603JR-0722RL</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="295">
+  <cellStyleXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -976,6 +976,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1225,7 +1231,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="295">
+  <cellStyles count="301">
     <cellStyle name="Bad" xfId="124" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1373,6 +1379,9 @@
     <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="123" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1520,6 +1529,9 @@
     <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1852,7 +1864,7 @@
   <dimension ref="B1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1881,6 +1893,7 @@
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="32">
+        <f ca="1">TODAY()</f>
         <v>41479</v>
       </c>
     </row>
@@ -2376,7 +2389,7 @@
         <v>34</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>174</v>

--- a/Bill of Materials/core-bom-v021.xlsx
+++ b/Bill of Materials/core-bom-v021.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21900" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM" sheetId="2" r:id="rId1"/>
+    <sheet name="Core" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="178">
   <si>
     <t>Device</t>
   </si>
@@ -315,9 +315,6 @@
     <t>2.4GHz, Ceramic</t>
   </si>
   <si>
-    <t>Vishay</t>
-  </si>
-  <si>
     <t>Ceramic RF Capacitor</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>AVX</t>
   </si>
   <si>
-    <t>TAJA106M010RNJ</t>
-  </si>
-  <si>
     <t>20V, 500mA</t>
   </si>
   <si>
@@ -445,23 +439,23 @@
   </si>
   <si>
     <t>ACX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C4, C7-8, C13-15, C17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RB551V-30-TP</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>TDK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MLG1608B2N2S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Song Ji</t>
@@ -483,7 +477,7 @@
   </si>
   <si>
     <t>Microchip Technology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MCP1825S-3302E/DB</t>
@@ -496,27 +490,23 @@
   </si>
   <si>
     <t>Mini Breadboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>USB Micro - B Cable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fab PCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Texas Instruments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C9,C10, C11, C12</t>
@@ -579,9 +569,6 @@
     <t>Button, 160gf</t>
   </si>
   <si>
-    <t>1m Flat, Black</t>
-  </si>
-  <si>
     <t>Transparent, 400pt or smaller</t>
   </si>
   <si>
@@ -598,9 +585,6 @@
   </si>
   <si>
     <t>Core Box</t>
-  </si>
-  <si>
-    <t>1-C, Cardboard, Double-sided</t>
   </si>
   <si>
     <t>Static Sponge</t>
@@ -643,30 +627,9 @@
     <t>CC0603JRNPO9BN220</t>
   </si>
   <si>
-    <t>Samsung Electro-Mechanics</t>
-  </si>
-  <si>
-    <t>CL10A475KP8NNNC</t>
-  </si>
-  <si>
     <t>10K, 1/10W, 5%</t>
   </si>
   <si>
-    <t>CRCW060310K0JNEB</t>
-  </si>
-  <si>
-    <t>CRCW060333K0JNEB</t>
-  </si>
-  <si>
-    <t>CRCW06031K50JNEA</t>
-  </si>
-  <si>
-    <t>CRCW060347K0JNEB</t>
-  </si>
-  <si>
-    <t>CRCW06031K00JNEA</t>
-  </si>
-  <si>
     <t>22Ω, 1/10W, 5%</t>
   </si>
   <si>
@@ -683,13 +646,66 @@
   </si>
   <si>
     <t>RC0603JR-0722RL</t>
+  </si>
+  <si>
+    <t>RC0603JR-0710KL</t>
+  </si>
+  <si>
+    <t>RC0603JR-071KL</t>
+  </si>
+  <si>
+    <t>RC0603JR-0733KL</t>
+  </si>
+  <si>
+    <t>RC0603JR-071K5L</t>
+  </si>
+  <si>
+    <t>RC0603JR-0747KL</t>
+  </si>
+  <si>
+    <t>TAJA106K010RNJ</t>
+  </si>
+  <si>
+    <t>LMK107BJ475KAHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>1-C Printed Cardboard, White on Craft</t>
+  </si>
+  <si>
+    <t>Cardboard Insert</t>
+  </si>
+  <si>
+    <t>Plain cardboard, no printing</t>
+  </si>
+  <si>
+    <t>CC3000MOD</t>
+  </si>
+  <si>
+    <t>0.5m Flat, White</t>
+  </si>
+  <si>
+    <t>CORE - CA</t>
+  </si>
+  <si>
+    <t>CORE - UFL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -755,6 +771,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -774,7 +796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -849,389 +871,592 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="301">
+  <cellStyleXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="124" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="123" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="124" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="123" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="123" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="123" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="123" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="123" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="124" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="124" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="124" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="124" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="301">
+  <cellStyles count="337">
     <cellStyle name="Bad" xfId="124" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1382,6 +1607,24 @@
     <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="123" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1532,6 +1775,24 @@
     <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1861,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J46"/>
+  <dimension ref="B1:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1888,13 +2149,13 @@
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="2:10" ht="16" thickBot="1">
-      <c r="B2" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="32">
+      <c r="B2" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="29">
         <f ca="1">TODAY()</f>
-        <v>41479</v>
+        <v>41489</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -1903,978 +2164,1074 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="B4" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="16" thickBot="1">
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="36">
+        <v>1</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="40">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="18">
+      <c r="H7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="41"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="40">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="40">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="40">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="33">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="33">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="E10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="40">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="33">
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="40">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="41"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="40">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="12">
-        <v>2</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="12">
+      <c r="H13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="40">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="30">
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="33">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="33">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>89</v>
+      <c r="C14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>136</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="33">
-        <v>1</v>
+      <c r="B15" s="43">
+        <v>2</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="40">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="40">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="40">
+        <v>2</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="40">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="40">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="40">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="40">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="40">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="40">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="40">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="40">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="40">
+        <v>2</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" s="41"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="40">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="41"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="40">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="40">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="41"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="40">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31" s="41"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="53"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="45"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="45"/>
+    </row>
+    <row r="34" spans="2:10" ht="30">
+      <c r="B34" s="46">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" s="41"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="43">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="43">
+        <v>1</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="40">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="33">
+      <c r="J37" s="41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="53"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="45"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="45"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="43">
         <v>1</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="22" t="s">
+      <c r="C40" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="33">
+      <c r="G40" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="16" thickBot="1">
+      <c r="B41" s="47">
         <v>1</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="C41" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="33">
-        <v>1</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="12">
-        <v>2</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="33">
-        <v>1</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="33">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="33">
-        <v>2</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="33">
-        <v>2</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="33">
-        <v>2</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="33">
-        <v>1</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="33">
-        <v>1</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="33">
-        <v>1</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="33">
-        <v>1</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="33">
-        <v>1</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="33">
-        <v>1</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="33">
-        <v>2</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="33">
-        <v>1</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="33">
-        <v>1</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="33">
-        <v>1</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="33">
-        <v>1</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J39" s="4" t="s">
+      <c r="I41" s="49" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="12">
-        <v>1</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="12">
-        <v>1</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="15" t="s">
+      <c r="J41" s="52"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="J44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>1</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>147</v>
+      <c r="C45" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="F45" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>1</v>
       </c>
-      <c r="C46" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
+      <c r="C46" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="11">
+        <v>1</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="11">
+        <v>1</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
     </row>
   </sheetData>
   <sortState ref="B9:J38">
